--- a/stock/data/우리금융지주.xlsx
+++ b/stock/data/우리금융지주.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1268"/>
+  <dimension ref="A1:G1301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29609,10 +29609,769 @@
         <v>14320</v>
       </c>
       <c r="F1268" t="n">
-        <v>2147339</v>
+        <v>2158189</v>
       </c>
       <c r="G1268" t="n">
         <v>-1.850582590815627</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>14450</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>14450</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>13900</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>14070</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>1861825</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>-1.745810055865922</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>13910</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>14140</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>13830</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>14050</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>1671570</v>
+      </c>
+      <c r="G1270" t="n">
+        <v>-0.1421464108031272</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>13970</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>14000</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>13740</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>13760</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>2355836</v>
+      </c>
+      <c r="G1271" t="n">
+        <v>-2.064056939501779</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>13770</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>14140</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>13770</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>14010</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>1583858</v>
+      </c>
+      <c r="G1272" t="n">
+        <v>1.816860465116279</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>13850</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>14090</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>13830</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>13930</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>880023</v>
+      </c>
+      <c r="G1273" t="n">
+        <v>-0.5710206995003569</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>14000</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>14150</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>13860</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>14030</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>1552017</v>
+      </c>
+      <c r="G1274" t="n">
+        <v>0.7178750897343862</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>14120</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>14130</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>13860</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>13910</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>1166510</v>
+      </c>
+      <c r="G1275" t="n">
+        <v>-0.8553100498930863</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>13440</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>13920</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>13260</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>13770</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>3245321</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>-1.00647016534867</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>13590</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>13700</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>13340</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>13410</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>2604557</v>
+      </c>
+      <c r="G1277" t="n">
+        <v>-2.61437908496732</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>13270</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>13590</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>13150</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>13560</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>1771800</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>1.118568232662192</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>13450</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>13590</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>13300</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>13400</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>2220892</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>-1.179941002949852</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>13500</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>13500</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>13170</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>13170</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>1314789</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>-1.716417910447761</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>13310</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>13630</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>13200</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>13500</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>1615309</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>2.505694760820045</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>13310</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>13590</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>13280</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>13540</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>2059911</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>13890</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>14180</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>13890</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>14150</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>2449323</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>4.505169867060562</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>14150</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>14450</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>14120</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>14200</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>1983757</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>0.353356890459364</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>14310</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>14350</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>13950</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>14120</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>1963697</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>-0.5633802816901409</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>13850</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>14160</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>13850</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>14020</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>1217139</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>-0.708215297450425</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>14120</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>14470</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>14120</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>14350</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>2574082</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>2.353780313837375</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>14350</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>14400</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>14140</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>14190</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>1924262</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>-1.114982578397212</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>14200</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>14300</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>14130</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>14230</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>1980111</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>0.2818886539816772</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>14110</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>14190</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>13920</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>13980</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>1669616</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>-1.756851721714687</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>14050</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>14160</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>14020</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>14130</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>877182</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>1.072961373390558</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>14270</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>14360</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>14100</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>14190</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>2314190</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>0.4246284501061571</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>14250</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>14540</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>14200</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>14500</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>2066619</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>2.184637068357998</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>14510</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>14590</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>14290</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>14340</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>2015366</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>-1.103448275862069</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>14540</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>14760</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>14470</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>14530</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>1942383</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>1.324965132496513</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>14610</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>14810</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>14520</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>14590</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>1605921</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>0.4129387474191328</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>14570</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>14620</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>14420</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>14440</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>1205602</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>-1.028101439342015</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>14590</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>14780</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>14560</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>14640</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>1966682</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>1.385041551246537</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>14640</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>14700</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>14540</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>14580</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>1204116</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>-0.4098360655737705</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>14660</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>14970</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>14610</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>14740</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>1829573</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>1.097393689986282</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>14610</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>14900</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>14600</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>14870</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>1392341</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>0.8819538670284939</v>
       </c>
     </row>
   </sheetData>
